--- a/vouchers/vouchersData.xlsx
+++ b/vouchers/vouchersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuldeep\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F7117-A49E-4593-AB63-99C1481B6D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47892533-B3CB-4133-8D69-8657B6DAE46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EC714B2-A9B2-4EF3-9937-1150BFF59ED3}"/>
+    <workbookView xWindow="3780" yWindow="1160" windowWidth="14400" windowHeight="7260" xr2:uid="{7EC714B2-A9B2-4EF3-9937-1150BFF59ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Dominos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>get 60% discount</t>
   </si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>lifestyle</t>
+  </si>
+  <si>
+    <t>kuldeep</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
 </sst>
 </file>
@@ -448,37 +451,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A7DE6D-3B7E-424C-A61C-7439641282B5}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -487,18 +490,18 @@
         <v>249</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>499</v>
@@ -507,18 +510,18 @@
         <v>1499</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>199</v>
@@ -527,18 +530,18 @@
         <v>399</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -547,18 +550,18 @@
         <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>499</v>
@@ -567,13 +570,33 @@
         <v>1499</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>499</v>
+      </c>
+      <c r="C7">
+        <v>1499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
